--- a/planilha/Gen Juarez.xlsx
+++ b/planilha/Gen Juarez.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="540" windowWidth="25575" windowHeight="11700"/>
+    <workbookView xWindow="390" yWindow="540" windowWidth="25575" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capacidades Operacionais" sheetId="1" r:id="rId1"/>
@@ -17,19 +17,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">Áreas!$A$1:$C$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Capacidades Operacionais'!$A:$C</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="387">
-  <si>
-    <t>Nr</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="381">
   <si>
     <t>Mobilidade Estratégica</t>
   </si>
@@ -265,30 +258,6 @@
     <t>EMPRESAS CREDENCIADAS COMO ED &amp; EED</t>
   </si>
   <si>
-    <t>QTD</t>
-  </si>
-  <si>
-    <t>EMPRESAS</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>N° PORTARIA</t>
-  </si>
-  <si>
-    <t>DATA - DOU</t>
-  </si>
-  <si>
-    <t>REU - CMID</t>
-  </si>
-  <si>
-    <t>CLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>HIPERLINK</t>
-  </si>
-  <si>
     <t>AEL SISTEMAS</t>
   </si>
   <si>
@@ -734,9 +703,6 @@
   </si>
   <si>
     <t>37.112.752/0001-54</t>
-  </si>
-  <si>
-    <t>Projetos</t>
   </si>
   <si>
     <t>Simulador Armas Leves - Módulo Fuzil</t>
@@ -969,9 +935,6 @@
     <t>4 → Projetos excluídos da carteira de projetos do CTEx (P&amp;D encerrada, decisões de chefia, etc.)</t>
   </si>
   <si>
-    <t>Áreas</t>
-  </si>
-  <si>
     <t>Fusão de Dados</t>
   </si>
   <si>
@@ -1110,9 +1073,6 @@
     <t>Trata do conjunto de tecnologias que permitam o funcionamento por longo período de unidades móveis autônomas ou que apoiem as necessidades de energia de soldados, individualmente considerados, a qualquer hora do dia ou da noite. Dentre as possibilidades conhecidas hoje destacam-se as células combustível à base de hidrogênio e fontes nucleares móveis. Não estão descartadas outras opções, como a energia solar, desde que elas venham a demonstrar praticabilidade operacional.</t>
   </si>
   <si>
-    <t>Áreas de Pesquisa</t>
-  </si>
-  <si>
     <t>Mísseis e Defesa Antimísseis</t>
   </si>
   <si>
@@ -1204,6 +1164,27 @@
   </si>
   <si>
     <t>descricao</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>numportaria</t>
+  </si>
+  <si>
+    <t>datadou</t>
+  </si>
+  <si>
+    <t>reucmid</t>
+  </si>
+  <si>
+    <t>classificacao</t>
+  </si>
+  <si>
+    <t>hiperlink</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -1344,9 +1325,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1417,6 +1395,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1425,8 +1406,36 @@
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1724,11 +1733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="55.75" style="4" customWidth="1"/>
@@ -1736,15 +1745,15 @@
     <col min="4" max="1024" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="63">
@@ -1752,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -1763,10 +1772,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="47.25">
@@ -1774,10 +1783,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="47.25">
@@ -1785,10 +1794,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="47.25">
@@ -1796,10 +1805,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" ht="31.5">
@@ -1807,10 +1816,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -1818,10 +1827,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="47.25">
@@ -1829,10 +1838,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" ht="47.25">
@@ -1840,10 +1849,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -1851,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="94.5">
@@ -1862,10 +1871,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="47.25">
@@ -1873,10 +1882,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="63">
@@ -1884,10 +1893,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="141.75">
@@ -1895,10 +1904,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -1906,10 +1915,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -1917,10 +1926,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="126">
@@ -1928,10 +1937,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -1939,10 +1948,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="110.25">
@@ -1950,10 +1959,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -1961,10 +1970,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1" ht="31.5">
@@ -1972,10 +1981,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" ht="31.5">
@@ -1983,10 +1992,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="63">
@@ -1994,10 +2003,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="47.25">
@@ -2005,10 +2014,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="31.5">
@@ -2016,10 +2025,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="3" customFormat="1" ht="47.25">
@@ -2027,10 +2036,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" ht="63">
@@ -2038,10 +2047,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" ht="63">
@@ -2049,10 +2058,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="31.5">
@@ -2060,10 +2069,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="31.5">
@@ -2071,10 +2080,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="94.5">
@@ -2082,10 +2091,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="63">
@@ -2093,10 +2102,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -2104,10 +2113,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="3" customFormat="1" ht="94.5">
@@ -2115,10 +2124,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="3" customFormat="1" ht="94.5">
@@ -2126,10 +2135,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" ht="78.75">
@@ -2137,10 +2146,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="3" customFormat="1" ht="94.5">
@@ -2148,10 +2157,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="3" customFormat="1" ht="63">
@@ -2159,10 +2168,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2176,9 +2185,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="34.625" style="11" customWidth="1"/>
@@ -2190,65 +2201,65 @@
     <col min="8" max="8" width="12.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8">
+      <c r="A1" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>85</v>
+        <v>377</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>86</v>
+        <v>378</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D4" s="8">
         <v>2056</v>
@@ -2260,21 +2271,21 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8">
         <v>1346</v>
@@ -2286,21 +2297,21 @@
         <v>6</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D6" s="8">
         <v>1346</v>
@@ -2312,21 +2323,21 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8">
         <v>1346</v>
@@ -2338,21 +2349,21 @@
         <v>9</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8">
         <v>1346</v>
@@ -2364,21 +2375,21 @@
         <v>6</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D9" s="8">
         <v>1635</v>
@@ -2390,21 +2401,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8">
         <v>1346</v>
@@ -2416,21 +2427,21 @@
         <v>9</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8">
         <v>250</v>
@@ -2442,21 +2453,21 @@
         <v>14</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D12" s="8">
         <v>1346</v>
@@ -2468,21 +2479,21 @@
         <v>6</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D13" s="8">
         <v>1346</v>
@@ -2494,21 +2505,21 @@
         <v>6</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D14" s="8">
         <v>1346</v>
@@ -2520,21 +2531,21 @@
         <v>9</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D15" s="8">
         <v>1346</v>
@@ -2546,21 +2557,21 @@
         <v>8</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D16" s="8">
         <v>1346</v>
@@ -2572,21 +2583,21 @@
         <v>6</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="7">
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D17" s="8">
         <v>2056</v>
@@ -2598,21 +2609,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="7">
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D18" s="8">
         <v>1346</v>
@@ -2624,21 +2635,21 @@
         <v>8</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="7">
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D19" s="8">
         <v>1346</v>
@@ -2650,21 +2661,21 @@
         <v>6</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="7">
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D20" s="8">
         <v>1346</v>
@@ -2676,21 +2687,21 @@
         <v>6</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="7">
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D21" s="8">
         <v>2638</v>
@@ -2702,21 +2713,21 @@
         <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="7">
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D22" s="8">
         <v>1635</v>
@@ -2728,21 +2739,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="7">
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D23" s="8">
         <v>1346</v>
@@ -2754,21 +2765,21 @@
         <v>6</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="7">
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D24" s="8">
         <v>1346</v>
@@ -2780,21 +2791,21 @@
         <v>8</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="7">
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D25" s="8">
         <v>1116</v>
@@ -2806,21 +2817,21 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="7">
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D26" s="8">
         <v>1360</v>
@@ -2832,21 +2843,21 @@
         <v>16</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="7">
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D27" s="8">
         <v>1346</v>
@@ -2858,21 +2869,21 @@
         <v>6</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="7">
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D28" s="8">
         <v>1360</v>
@@ -2884,21 +2895,21 @@
         <v>16</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="7">
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D29" s="8">
         <v>1346</v>
@@ -2910,21 +2921,21 @@
         <v>6</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="7">
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D30" s="8">
         <v>1116</v>
@@ -2936,21 +2947,21 @@
         <v>15</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="7">
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D31" s="8">
         <v>1346</v>
@@ -2962,21 +2973,21 @@
         <v>6</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D32" s="8">
         <v>1346</v>
@@ -2988,21 +2999,21 @@
         <v>6</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="7">
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D33" s="8">
         <v>1635</v>
@@ -3014,21 +3025,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="7">
         <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D34" s="8">
         <v>1346</v>
@@ -3040,21 +3051,21 @@
         <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="7">
         <v>32</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D35" s="8">
         <v>1346</v>
@@ -3066,21 +3077,21 @@
         <v>6</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="7">
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D36" s="8">
         <v>249</v>
@@ -3092,21 +3103,21 @@
         <v>11</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="7">
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D37" s="8">
         <v>2028</v>
@@ -3118,21 +3129,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="7">
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D38" s="8">
         <v>2028</v>
@@ -3144,21 +3155,21 @@
         <v>11</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="7">
         <v>36</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D39" s="8">
         <v>249</v>
@@ -3170,21 +3181,21 @@
         <v>14</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="7">
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D40" s="8">
         <v>249</v>
@@ -3196,21 +3207,21 @@
         <v>14</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="7">
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D41" s="8">
         <v>2638</v>
@@ -3222,21 +3233,21 @@
         <v>12</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="7">
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D42" s="8">
         <v>2638</v>
@@ -3248,21 +3259,21 @@
         <v>12</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="7">
         <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D43" s="8">
         <v>1346</v>
@@ -3274,21 +3285,21 @@
         <v>6</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="7">
         <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D44" s="8">
         <v>1346</v>
@@ -3300,21 +3311,21 @@
         <v>6</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="7">
         <v>42</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D45" s="8">
         <v>1346</v>
@@ -3326,21 +3337,21 @@
         <v>6</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="7">
         <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D46" s="8">
         <v>1346</v>
@@ -3352,21 +3363,21 @@
         <v>6</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="7">
         <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D47" s="8">
         <v>2638</v>
@@ -3378,21 +3389,21 @@
         <v>12</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="7">
         <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D48" s="8">
         <v>1346</v>
@@ -3404,21 +3415,21 @@
         <v>8</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="7">
         <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D49" s="8">
         <v>1346</v>
@@ -3430,21 +3441,21 @@
         <v>6</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="7">
         <v>47</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D50" s="8">
         <v>2028</v>
@@ -3456,21 +3467,21 @@
         <v>11</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="7">
         <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D51" s="8">
         <v>1346</v>
@@ -3482,21 +3493,21 @@
         <v>9</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D52" s="8">
         <v>1346</v>
@@ -3508,21 +3519,21 @@
         <v>8</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="7">
         <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D53" s="8">
         <v>1346</v>
@@ -3534,21 +3545,21 @@
         <v>6</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D54" s="8">
         <v>1346</v>
@@ -3560,21 +3571,21 @@
         <v>8</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="7">
         <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D55" s="8">
         <v>1346</v>
@@ -3586,21 +3597,21 @@
         <v>6</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="7">
         <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D56" s="8">
         <v>1346</v>
@@ -3612,21 +3623,21 @@
         <v>9</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="7">
         <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D57" s="8">
         <v>1346</v>
@@ -3638,21 +3649,21 @@
         <v>8</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D58" s="8">
         <v>2638</v>
@@ -3664,21 +3675,21 @@
         <v>12</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="7">
         <v>56</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D59" s="8">
         <v>1346</v>
@@ -3690,21 +3701,21 @@
         <v>6</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D60" s="8">
         <v>1346</v>
@@ -3716,21 +3727,21 @@
         <v>6</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="7">
         <v>58</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D61" s="8">
         <v>1346</v>
@@ -3742,21 +3753,21 @@
         <v>9</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>59</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8">
         <v>1346</v>
@@ -3768,21 +3779,21 @@
         <v>9</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="7">
         <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8">
         <v>1346</v>
@@ -3794,21 +3805,21 @@
         <v>9</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8">
         <v>2056</v>
@@ -3820,21 +3831,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="7">
         <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8">
         <v>1346</v>
@@ -3846,21 +3857,21 @@
         <v>6</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8">
         <v>1346</v>
@@ -3872,21 +3883,21 @@
         <v>8</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="7">
         <v>64</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8">
         <v>1346</v>
@@ -3898,21 +3909,21 @@
         <v>8</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>65</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8">
         <v>1346</v>
@@ -3924,21 +3935,21 @@
         <v>8</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="7">
         <v>66</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8">
         <v>1346</v>
@@ -3950,21 +3961,21 @@
         <v>8</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>67</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8">
         <v>1346</v>
@@ -3976,21 +3987,21 @@
         <v>6</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="7">
         <v>68</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8">
         <v>1116</v>
@@ -4002,21 +4013,21 @@
         <v>15</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>69</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8">
         <v>1635</v>
@@ -4028,21 +4039,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="7">
         <v>70</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8">
         <v>1346</v>
@@ -4054,21 +4065,21 @@
         <v>6</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>71</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8">
         <v>1346</v>
@@ -4080,21 +4091,21 @@
         <v>6</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="7">
         <v>72</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8">
         <v>1346</v>
@@ -4106,21 +4117,21 @@
         <v>8</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>73</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8">
         <v>2638</v>
@@ -4132,10 +4143,10 @@
         <v>12</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4153,767 +4164,772 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="89.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="89.125" style="28" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="14">
+      <c r="C12" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="14">
+    <row r="16" spans="1:3">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="14">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:3" ht="31.5">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="14">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="C31" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="21" t="s">
+      <c r="C32" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="C33" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" spans="1:3" ht="31.5">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="C34" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="C35" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="C36" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C26" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75">
-      <c r="A27" s="14">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="C37" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75">
-      <c r="A28" s="14">
-        <v>27</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="C38" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C28" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="14">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="C39" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="21" t="s">
+      <c r="C40" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C41" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75">
-      <c r="A31" s="14">
-        <v>30</v>
-      </c>
-      <c r="B31" s="17" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C42" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="14">
-        <v>31</v>
-      </c>
-      <c r="B32" s="15" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C43" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
-      <c r="A33" s="14">
-        <v>32</v>
-      </c>
-      <c r="B33" s="21" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C44" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75">
-      <c r="A34" s="14">
-        <v>33</v>
-      </c>
-      <c r="B34" s="15" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C45" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75">
-      <c r="A35" s="14">
-        <v>34</v>
-      </c>
-      <c r="B35" s="15" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C46" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75">
-      <c r="A36" s="14">
-        <v>35</v>
-      </c>
-      <c r="B36" s="15" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C47" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
-      <c r="A37" s="14">
-        <v>36</v>
-      </c>
-      <c r="B37" s="15" t="s">
+    <row r="48" spans="1:3" ht="31.5">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C48" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
-      <c r="A38" s="14">
-        <v>37</v>
-      </c>
-      <c r="B38" s="15" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C49" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="14">
-        <v>38</v>
-      </c>
-      <c r="B39" s="15" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C50" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
-      <c r="A40" s="14">
-        <v>39</v>
-      </c>
-      <c r="B40" s="15" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C51" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
-      <c r="A41" s="14">
-        <v>40</v>
-      </c>
-      <c r="B41" s="21" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C52" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
-      <c r="A42" s="14">
-        <v>41</v>
-      </c>
-      <c r="B42" s="15" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C53" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
-      <c r="A43" s="14">
-        <v>42</v>
-      </c>
-      <c r="B43" s="15" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C54" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
-      <c r="A44" s="14">
-        <v>43</v>
-      </c>
-      <c r="B44" s="15" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C55" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75">
-      <c r="A45" s="14">
-        <v>44</v>
-      </c>
-      <c r="B45" s="15" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C56" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75">
-      <c r="A46" s="14">
-        <v>45</v>
-      </c>
-      <c r="B46" s="15" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C57" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75">
-      <c r="A47" s="14">
-        <v>46</v>
-      </c>
-      <c r="B47" s="17" t="s">
+    <row r="58" spans="1:3" ht="31.5">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C58" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="31.5">
-      <c r="A48" s="14">
-        <v>47</v>
-      </c>
-      <c r="B48" s="15" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C59" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75">
-      <c r="A49" s="14">
-        <v>48</v>
-      </c>
-      <c r="B49" s="15" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C60" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75">
-      <c r="A50" s="14">
-        <v>49</v>
-      </c>
-      <c r="B50" s="15" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C61" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75">
-      <c r="A51" s="14">
-        <v>50</v>
-      </c>
-      <c r="B51" s="15" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C62" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75">
-      <c r="A52" s="14">
-        <v>51</v>
-      </c>
-      <c r="B52" s="15" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C63" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75">
-      <c r="A53" s="14">
-        <v>52</v>
-      </c>
-      <c r="B53" s="15" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C64" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75">
-      <c r="A54" s="14">
-        <v>53</v>
-      </c>
-      <c r="B54" s="21" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C65" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="14">
-        <v>54</v>
-      </c>
-      <c r="B55" s="21" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C66" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" s="14">
-        <v>55</v>
-      </c>
-      <c r="B56" s="15" t="s">
+    <row r="67" spans="1:3">
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="25"/>
+      <c r="C68" s="26"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" s="14">
-        <v>56</v>
-      </c>
-      <c r="B57" s="21" t="s">
+      <c r="C70" s="26"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C57" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="31.5">
-      <c r="A58" s="14">
-        <v>57</v>
-      </c>
-      <c r="B58" s="15" t="s">
+      <c r="C71" s="26"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75">
-      <c r="A59" s="14">
-        <v>58</v>
-      </c>
-      <c r="B59" s="15" t="s">
+      <c r="C72" s="26"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75">
-      <c r="A60" s="14">
-        <v>59</v>
-      </c>
-      <c r="B60" s="15" t="s">
+      <c r="C73" s="26"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C60" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75">
-      <c r="A61" s="14">
-        <v>60</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75">
-      <c r="A62" s="14">
-        <v>61</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75">
-      <c r="A63" s="14">
-        <v>62</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C63" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75">
-      <c r="A64" s="14">
-        <v>63</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" s="14">
-        <v>64</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C65" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75">
-      <c r="A66" s="14">
-        <v>65</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C66" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75">
-      <c r="B67" s="26"/>
-      <c r="C67" s="27"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.75">
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75">
-      <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.75">
-      <c r="B70" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="C70" s="27"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.75">
-      <c r="B71" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C71" s="27"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75">
-      <c r="B72" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="C72" s="27"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75">
-      <c r="B73" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C73" s="27"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75">
-      <c r="B74" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="C74" s="27"/>
+      <c r="C74" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.29527559055118113" right="0.20708661417322835" top="0.67637795275590551" bottom="0.85393700787401572" header="0.28267716535433074" footer="0.46023622047244095"/>
@@ -4926,277 +4942,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35" style="11" customWidth="1"/>
     <col min="3" max="3" width="98.125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="94.5">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="78.75">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="126">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="47.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="47.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="47.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="94.5">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="31.5">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="78.75">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
+    <row r="9" spans="1:3" ht="47.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="126">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30" t="s">
+    <row r="10" spans="1:3" ht="63">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30" t="s">
+    <row r="11" spans="1:3" ht="78.75">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30" t="s">
+    <row r="12" spans="1:3" ht="78.75">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="47.25">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30" t="s">
+    <row r="13" spans="1:3" ht="78.75">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30" t="s">
+    <row r="14" spans="1:3" ht="63">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="30" t="s">
+    <row r="15" spans="1:3" ht="63">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="30" t="s">
+    <row r="16" spans="1:3" ht="63">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="78.75">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30" t="s">
+    <row r="17" spans="1:3" ht="47.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="78.75">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30" t="s">
+    <row r="18" spans="1:3" ht="63">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="78.75">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="30" t="s">
+    <row r="19" spans="1:3" ht="47.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30" t="s">
+    <row r="20" spans="1:3" ht="63">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="63">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30" t="s">
+    <row r="21" spans="1:3" ht="31.5">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="63">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="30" t="s">
+    <row r="22" spans="1:3" ht="47.25">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="47.25">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="30" t="s">
+    <row r="23" spans="1:3" ht="47.25">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="63">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
+    <row r="24" spans="1:3" ht="63">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="47.25">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="63">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.5">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="47.25">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="47.25">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="63">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5210,9 +5228,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="59.75" customWidth="1"/>
@@ -5220,294 +5240,294 @@
     <col min="4" max="4" width="46.125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="63">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" ht="94.5">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="126">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" ht="78.75">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:4" ht="78.75">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="C15" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="35"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="63">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="31">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="35"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34" t="s">
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="C8" s="35"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="31">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="C9" s="35"/>
-    </row>
-    <row r="10" spans="1:4" ht="94.5">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="126">
-      <c r="A11" s="31">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="30">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="31">
-        <v>11</v>
-      </c>
-      <c r="B12" s="34" t="s">
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="30">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="35"/>
-    </row>
-    <row r="13" spans="1:4" ht="78.75">
-      <c r="A13" s="31">
-        <v>12</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="36" t="s">
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" ht="47.25">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="30">
+        <v>26</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="s">
+      <c r="C27" s="34"/>
+    </row>
+    <row r="28" spans="1:3" ht="63">
+      <c r="A28" s="30">
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="35"/>
-    </row>
-    <row r="15" spans="1:4" ht="78.75">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="C28" s="35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="30">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="34" t="s">
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="C16" s="35"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="31">
-        <v>16</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="C17" s="35"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="31">
-        <v>17</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="C18" s="35"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="31">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="31">
-        <v>19</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="31">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" s="35"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="31">
-        <v>21</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="C22" s="35"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="31">
-        <v>22</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="35"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="31">
-        <v>23</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="C24" s="35"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="31">
-        <v>24</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="C25" s="35"/>
-    </row>
-    <row r="26" spans="1:3" ht="47.25">
-      <c r="A26" s="31">
-        <v>25</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75">
-      <c r="A27" s="31">
-        <v>26</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="C27" s="35"/>
-    </row>
-    <row r="28" spans="1:3" ht="63">
-      <c r="A28" s="31">
-        <v>27</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="31">
-        <v>28</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="C29" s="35"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="31">
-        <v>29</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.29527559055118113" right="0.20708661417322835" top="0.67637795275590551" bottom="0.85393700787401572" header="0.28267716535433074" footer="0.46023622047244095"/>
